--- a/time-keeper-test-cases.xlsx
+++ b/time-keeper-test-cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>TESTER</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status(Pass/Fail)</t>
+  </si>
+  <si>
+    <t>GitHub Repo Issue Link</t>
   </si>
   <si>
     <t>Add Timezone</t>
@@ -143,6 +146,9 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>https://github.com/afofaj/Hiive/issues/1</t>
+  </si>
+  <si>
     <t>TC_006</t>
   </si>
   <si>
@@ -154,10 +160,13 @@
 </t>
   </si>
   <si>
-    <t>Record should not be added. An error message shuld be displayed</t>
+    <t>Record should not be added. An error message should be displayed</t>
   </si>
   <si>
-    <t>Record was added to the tabel and a whitepace was displayed as the label name</t>
+    <t>Record was added to the table and a whitepace was displayed as the label name</t>
+  </si>
+  <si>
+    <t>https://github.com/afofaj/Hiive/issues/2</t>
   </si>
   <si>
     <t>Time Keeper Table</t>
@@ -205,21 +214,24 @@
     <t>"Local(You)" record should not be deleted. Error message should be displayed</t>
   </si>
   <si>
-    <t>"Local(You)" record is deleted from the page</t>
+    <t>"Local(You)" record was deleted from the page</t>
+  </si>
+  <si>
+    <t>https://github.com/afofaj/Hiive/issues/3</t>
   </si>
   <si>
     <t>TC_010</t>
   </si>
   <si>
-    <t>Verify that the table is sorted by the current time</t>
+    <t>Verify that the table is sorted by the local time</t>
   </si>
   <si>
     <t xml:space="preserve">- Navigate to the Time keeper web app URL
 - Add a timezone record for each location
-- Check to see if table is sorted by current time </t>
+- Check to see if table is sorted by local time </t>
   </si>
   <si>
-    <t>Table should be sorted by the current time, such that the earliest time is first, and the latest time is last</t>
+    <t>Table should be sorted by the local time, such that the earliest time is first, and the latest time is last</t>
   </si>
   <si>
     <r>
@@ -242,8 +254,11 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> sorted with the earliest time first and latest time last</t>
+      <t xml:space="preserve"> sorted by local time with the earliest time first and latest time last</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/afofaj/Hiive/issues/4</t>
   </si>
   <si>
     <t>Responsive Web app</t>
@@ -288,12 +303,15 @@
       <t xml:space="preserve"> formatted properly in responsive view</t>
     </r>
   </si>
+  <si>
+    <t>https://github.com/afofaj/Hiive/issues/5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -310,6 +328,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -354,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -376,10 +398,13 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,7 +773,9 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -769,25 +796,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -810,22 +837,22 @@
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -848,22 +875,22 @@
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -886,22 +913,22 @@
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -924,24 +951,26 @@
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -962,24 +991,26 @@
     </row>
     <row r="11">
       <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
+      <c r="H11" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -999,7 +1030,7 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1021,25 +1052,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1062,22 +1093,22 @@
     </row>
     <row r="14">
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1100,24 +1131,26 @@
     </row>
     <row r="15">
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>56</v>
+      <c r="F15" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1138,24 +1171,26 @@
     </row>
     <row r="16">
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1175,7 +1210,7 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1197,27 +1232,29 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -27919,6 +27956,13 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A6:A11"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H10"/>
+    <hyperlink r:id="rId2" ref="H11"/>
+    <hyperlink r:id="rId3" ref="H15"/>
+    <hyperlink r:id="rId4" ref="H16"/>
+    <hyperlink r:id="rId5" ref="H18"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>